--- a/biology/Zoologie/Japalura_variegata/Japalura_variegata.xlsx
+++ b/biology/Zoologie/Japalura_variegata/Japalura_variegata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Japalura variegata est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japalura variegata est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sikkim et au Bengale-Occidental en Inde, au Bhoutan et au Népal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sikkim et au Bengale-Occidental en Inde, au Bhoutan et au Népal.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gray, 1853 : Descriptions of some undescribed species of reptiles collected by Dr. Joseph Hooker in the Khassia Mountains, East Bengal, and Sikkim Himalaya. Annals and Magazine of Natural History, sér. 2, vol. 12, p. 386-392 (texte intégral)</t>
         </is>
